--- a/điểm trường.xlsx
+++ b/điểm trường.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\intern-management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23578F90-5851-478A-8919-F20F29611BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363C6263-B031-4DE6-848F-F0B141575428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{2FC6E55B-3011-4D77-A69A-F746F6FBA163}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="184">
   <si>
     <t>type</t>
   </si>
@@ -954,13 +954,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE2F2EB-7C2D-4D0A-848C-98AAB182CD51}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.6328125" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" customWidth="1"/>
+    <col min="4" max="4" width="63.7265625" customWidth="1"/>
+    <col min="5" max="5" width="20.36328125" customWidth="1"/>
+    <col min="6" max="6" width="18.81640625" customWidth="1"/>
+    <col min="7" max="7" width="29.1796875" customWidth="1"/>
+    <col min="8" max="8" width="14.6328125" customWidth="1"/>
+    <col min="9" max="9" width="24.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.35">
@@ -1309,7 +1316,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1320,8 +1327,12 @@
       <c r="D13" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="E13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="G13" s="1" t="s">
         <v>90</v>
       </c>
@@ -2103,7 +2114,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="51" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>8</v>
       </c>
@@ -2116,8 +2127,12 @@
       <c r="D41" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
+      <c r="E41" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="G41" s="1" t="s">
         <v>177</v>
       </c>
